--- a/doc/Check.xlsx
+++ b/doc/Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zadachi\QA_AndroidTest_Diplom\fmh_android_15_03_24\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zadachi\Diplom2\fmh_android_15_03_24\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0746F617-B89B-45AD-8775-E207B1323106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6684FE1-959B-40B7-AEFD-751C5C135606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>Чек-лист проверок мобильного приложения "Мобильный хоспис".</t>
   </si>
@@ -177,15 +177,9 @@
     <t>Выход из личного кабинета</t>
   </si>
   <si>
-    <t>Тестирование пользовательского интерфейса</t>
-  </si>
-  <si>
     <t>Удобство пользования</t>
   </si>
   <si>
-    <t>Тестирование на отказоустойчивость</t>
-  </si>
-  <si>
     <t>Работа приложения без интернета</t>
   </si>
   <si>
@@ -211,6 +205,9 @@
   </si>
   <si>
     <t>Работа приложения после сворачивания</t>
+  </si>
+  <si>
+    <t>Работа приложения при разных настройках сети</t>
   </si>
 </sst>
 </file>
@@ -557,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1173,7 @@
       </c>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>46</v>
       </c>
@@ -1184,7 +1181,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
@@ -1196,10 +1193,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
@@ -1212,7 +1209,7 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
@@ -1225,13 +1222,13 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1240,13 +1237,13 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1255,13 +1252,13 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1270,13 +1267,13 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1285,7 +1282,7 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>6</v>
@@ -1298,13 +1295,13 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
